--- a/GPS/user_stay_point/user_stay_point_daily.xlsx
+++ b/GPS/user_stay_point/user_stay_point_daily.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google雲端硬碟\資料分析師班\專題\credit_card\credit_card\DB104\GPS\user_stay_point\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\專題\credit_card\DB104_hau\GPS\user_stay_point\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -951,18 +951,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A167" sqref="A167:XFD168"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.8984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="19.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -982,7 +982,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>190.433333333333</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>144.19999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>25.333333333333329</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>29.43333333333333</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>19.81666666666667</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>17.75</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>14.883333333333329</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>35.81666666666667</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1162,7 +1162,7 @@
         <v>101.73333333333331</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>796.05</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>121.8833333333333</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1242,7 +1242,7 @@
         <v>0.16666666666666671</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>16.43333333333333</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>20.033333333333331</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>69.433333333333337</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>155.93333333333331</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>39.033333333333331</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>127.8333333333333</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -1382,7 +1382,7 @@
         <v>57.85</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>69.333333333333329</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>43.05</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -1442,7 +1442,7 @@
         <v>58.883333333333333</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>253.5333333333333</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -1482,7 +1482,7 @@
         <v>317.3</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>116.6</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -1522,7 +1522,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -1542,7 +1542,7 @@
         <v>48.7</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -1562,7 +1562,7 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>148.98333333333329</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>40.049999999999997</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -1622,7 +1622,7 @@
         <v>7.7666666666666666</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>64.733333333333334</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -1662,7 +1662,7 @@
         <v>37.450000000000003</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>165.55</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -1702,7 +1702,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>45.016666666666673</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>9</v>
       </c>
@@ -1742,7 +1742,7 @@
         <v>80.166666666666671</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>899.98333333333335</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>9</v>
       </c>
@@ -1782,7 +1782,7 @@
         <v>97.11666666666666</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>9</v>
       </c>
@@ -1802,7 +1802,7 @@
         <v>218.4666666666667</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>9</v>
       </c>
@@ -1822,7 +1822,7 @@
         <v>18.100000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>9</v>
       </c>
@@ -1842,7 +1842,7 @@
         <v>204.16666666666671</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>9</v>
       </c>
@@ -1862,7 +1862,7 @@
         <v>381.06666666666672</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>9</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>111.9166666666667</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>9</v>
       </c>
@@ -1902,7 +1902,7 @@
         <v>99.583333333333329</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>9</v>
       </c>
@@ -1922,7 +1922,7 @@
         <v>372.95</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>9</v>
       </c>
@@ -1942,7 +1942,7 @@
         <v>66.066666666666663</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>9</v>
       </c>
@@ -1962,7 +1962,7 @@
         <v>42.083333333333343</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>9</v>
       </c>
@@ -1982,7 +1982,7 @@
         <v>188.81666666666669</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -2002,7 +2002,7 @@
         <v>96.35</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -2022,7 +2022,7 @@
         <v>82.3</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -2042,7 +2042,7 @@
         <v>81.849999999999994</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -2062,7 +2062,7 @@
         <v>276.14999999999998</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>9</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>198.16666666666671</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -2102,7 +2102,7 @@
         <v>60.06666666666667</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>9</v>
       </c>
@@ -2122,7 +2122,7 @@
         <v>262.33333333333331</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>9</v>
       </c>
@@ -2142,7 +2142,7 @@
         <v>54.06666666666667</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>9</v>
       </c>
@@ -2162,7 +2162,7 @@
         <v>140.73333333333329</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>9</v>
       </c>
@@ -2182,7 +2182,7 @@
         <v>222.15</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>9</v>
       </c>
@@ -2202,7 +2202,7 @@
         <v>102.05</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>9</v>
       </c>
@@ -2222,7 +2222,7 @@
         <v>150.1</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>9</v>
       </c>
@@ -2242,7 +2242,7 @@
         <v>48.05</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>9</v>
       </c>
@@ -2262,7 +2262,7 @@
         <v>183.56666666666669</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>9</v>
       </c>
@@ -2282,7 +2282,7 @@
         <v>72.066666666666663</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>9</v>
       </c>
@@ -2302,7 +2302,7 @@
         <v>108.2</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -2322,7 +2322,7 @@
         <v>87.766666666666666</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>10</v>
       </c>
@@ -2342,7 +2342,7 @@
         <v>47.983333333333327</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>10</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>133.1333333333333</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>10</v>
       </c>
@@ -2382,7 +2382,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>10</v>
       </c>
@@ -2402,7 +2402,7 @@
         <v>99.016666666666666</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>10</v>
       </c>
@@ -2422,7 +2422,7 @@
         <v>68.983333333333334</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>10</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v>19.116666666666671</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>10</v>
       </c>
@@ -2462,7 +2462,7 @@
         <v>189.6333333333333</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>10</v>
       </c>
@@ -2482,7 +2482,7 @@
         <v>21.366666666666671</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>10</v>
       </c>
@@ -2502,7 +2502,7 @@
         <v>242.76666666666671</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>10</v>
       </c>
@@ -2522,7 +2522,7 @@
         <v>72.066666666666663</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>10</v>
       </c>
@@ -2542,7 +2542,7 @@
         <v>37.833333333333343</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>10</v>
       </c>
@@ -2562,7 +2562,7 @@
         <v>202.4666666666667</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>10</v>
       </c>
@@ -2582,7 +2582,7 @@
         <v>53.7</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>10</v>
       </c>
@@ -2602,7 +2602,7 @@
         <v>121.6333333333333</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>10</v>
       </c>
@@ -2622,7 +2622,7 @@
         <v>261.26666666666671</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>10</v>
       </c>
@@ -2642,7 +2642,7 @@
         <v>100.06666666666671</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>10</v>
       </c>
@@ -2662,7 +2662,7 @@
         <v>195.33333333333329</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>10</v>
       </c>
@@ -2682,7 +2682,7 @@
         <v>306.5</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>10</v>
       </c>
@@ -2702,7 +2702,7 @@
         <v>45.05</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>10</v>
       </c>
@@ -2722,7 +2722,7 @@
         <v>235.08333333333329</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>10</v>
       </c>
@@ -2742,7 +2742,7 @@
         <v>46.016666666666673</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>10</v>
       </c>
@@ -2762,7 +2762,7 @@
         <v>64.5</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>10</v>
       </c>
@@ -2782,7 +2782,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>10</v>
       </c>
@@ -2802,7 +2802,7 @@
         <v>19.733333333333331</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>10</v>
       </c>
@@ -2822,7 +2822,7 @@
         <v>3.2666666666666671</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>10</v>
       </c>
@@ -2842,7 +2842,7 @@
         <v>33.56666666666667</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>10</v>
       </c>
@@ -2862,7 +2862,7 @@
         <v>9.6666666666666661</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>10</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>10</v>
       </c>
@@ -2902,7 +2902,7 @@
         <v>16.966666666666669</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>10</v>
       </c>
@@ -2922,7 +2922,7 @@
         <v>131.5333333333333</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>10</v>
       </c>
@@ -2942,7 +2942,7 @@
         <v>27.616666666666671</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>10</v>
       </c>
@@ -2962,7 +2962,7 @@
         <v>130.48333333333329</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>10</v>
       </c>
@@ -2982,7 +2982,7 @@
         <v>81.216666666666669</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>10</v>
       </c>
@@ -3002,7 +3002,7 @@
         <v>31.833333333333329</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>10</v>
       </c>
@@ -3022,7 +3022,7 @@
         <v>255.95</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>10</v>
       </c>
@@ -3042,7 +3042,7 @@
         <v>16.016666666666669</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>10</v>
       </c>
@@ -3062,7 +3062,7 @@
         <v>22.31666666666667</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>10</v>
       </c>
@@ -3082,7 +3082,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>10</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v>58.266666666666673</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>10</v>
       </c>
@@ -3122,7 +3122,7 @@
         <v>193.51666666666671</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>10</v>
       </c>
@@ -3142,7 +3142,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>10</v>
       </c>
@@ -3162,7 +3162,7 @@
         <v>40.56666666666667</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>10</v>
       </c>
@@ -3182,7 +3182,7 @@
         <v>228.48333333333329</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>10</v>
       </c>
@@ -3202,7 +3202,7 @@
         <v>58.966666666666669</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>10</v>
       </c>
@@ -3222,7 +3222,7 @@
         <v>410.23333333333329</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>10</v>
       </c>
@@ -3242,7 +3242,7 @@
         <v>166.16666666666671</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>10</v>
       </c>
@@ -3262,7 +3262,7 @@
         <v>236.81666666666669</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>10</v>
       </c>
@@ -3282,7 +3282,7 @@
         <v>212.48333333333329</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>10</v>
       </c>
@@ -3302,7 +3302,7 @@
         <v>46.15</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>11</v>
       </c>
@@ -3322,7 +3322,7 @@
         <v>62.883333333333333</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>11</v>
       </c>
@@ -3342,7 +3342,7 @@
         <v>58.31666666666667</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>11</v>
       </c>
@@ -3362,7 +3362,7 @@
         <v>63.283333333333331</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>11</v>
       </c>
@@ -3382,7 +3382,7 @@
         <v>30.266666666666669</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>11</v>
       </c>
@@ -3402,7 +3402,7 @@
         <v>189.73333333333329</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>11</v>
       </c>
@@ -3422,7 +3422,7 @@
         <v>29.966666666666669</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>11</v>
       </c>
@@ -3442,7 +3442,7 @@
         <v>323.91666666666669</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>11</v>
       </c>
@@ -3462,7 +3462,7 @@
         <v>320.60000000000002</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>11</v>
       </c>
@@ -3482,7 +3482,7 @@
         <v>75.716666666666669</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>11</v>
       </c>
@@ -3502,7 +3502,7 @@
         <v>82.36666666666666</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>11</v>
       </c>
@@ -3522,7 +3522,7 @@
         <v>191.68333333333331</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>11</v>
       </c>
@@ -3542,7 +3542,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>11</v>
       </c>
@@ -3562,7 +3562,7 @@
         <v>126.1</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>11</v>
       </c>
@@ -3582,7 +3582,7 @@
         <v>18.016666666666669</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>11</v>
       </c>
@@ -3602,7 +3602,7 @@
         <v>415.41666666666669</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>11</v>
       </c>
@@ -3622,7 +3622,7 @@
         <v>78.066666666666663</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>11</v>
       </c>
@@ -3642,7 +3642,7 @@
         <v>309.51666666666671</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>11</v>
       </c>
@@ -3662,7 +3662,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>11</v>
       </c>
@@ -3682,7 +3682,7 @@
         <v>265.88333333333333</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>11</v>
       </c>
@@ -3702,7 +3702,7 @@
         <v>364.55</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>11</v>
       </c>
@@ -3722,7 +3722,7 @@
         <v>18.016666666666669</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>12</v>
       </c>
@@ -3742,7 +3742,7 @@
         <v>14.71666666666667</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>12</v>
       </c>
@@ -3762,7 +3762,7 @@
         <v>1.033333333333333</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>12</v>
       </c>
@@ -3782,7 +3782,7 @@
         <v>30.31666666666667</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>12</v>
       </c>
@@ -3802,7 +3802,7 @@
         <v>3.1333333333333329</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>12</v>
       </c>
@@ -3822,7 +3822,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>12</v>
       </c>
@@ -3842,7 +3842,7 @@
         <v>180.433333333333</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>12</v>
       </c>
@@ -3862,7 +3862,7 @@
         <v>24.95</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>12</v>
       </c>
@@ -3882,7 +3882,7 @@
         <v>43.766666666666673</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>12</v>
       </c>
@@ -3902,7 +3902,7 @@
         <v>16.416666666666671</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>12</v>
       </c>
@@ -3922,7 +3922,7 @@
         <v>28.866666666666671</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>12</v>
       </c>
@@ -3942,7 +3942,7 @@
         <v>14.81666666666667</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>12</v>
       </c>
@@ -3962,7 +3962,7 @@
         <v>16.283333333333331</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>12</v>
       </c>
@@ -3982,7 +3982,7 @@
         <v>26.583333333333329</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>12</v>
       </c>
@@ -4002,7 +4002,7 @@
         <v>216.06666666666669</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>12</v>
       </c>
@@ -4022,7 +4022,7 @@
         <v>50.283333333333331</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>12</v>
       </c>
@@ -4042,7 +4042,7 @@
         <v>41.383333333333333</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>12</v>
       </c>
@@ -4062,7 +4062,7 @@
         <v>4.6333333333333337</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>12</v>
       </c>
@@ -4082,7 +4082,7 @@
         <v>120.5333333333333</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>12</v>
       </c>
@@ -4102,7 +4102,7 @@
         <v>28.883333333333329</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>12</v>
       </c>
@@ -4122,7 +4122,7 @@
         <v>44.083333333333343</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>12</v>
       </c>
@@ -4142,7 +4142,7 @@
         <v>26.016666666666669</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>12</v>
       </c>
@@ -4162,7 +4162,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>12</v>
       </c>
@@ -4182,7 +4182,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>12</v>
       </c>
@@ -4202,7 +4202,7 @@
         <v>1.0166666666666671</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>12</v>
       </c>
@@ -4222,7 +4222,7 @@
         <v>3.1833333333333331</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>12</v>
       </c>
@@ -4242,7 +4242,7 @@
         <v>1.033333333333333</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>12</v>
       </c>
@@ -4262,7 +4262,7 @@
         <v>25.516666666666669</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>12</v>
       </c>
@@ -4282,7 +4282,7 @@
         <v>3.666666666666667</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>12</v>
       </c>
@@ -4302,7 +4302,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>12</v>
       </c>
@@ -4322,7 +4322,7 @@
         <v>18.850000000000001</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>12</v>
       </c>
@@ -4342,7 +4342,7 @@
         <v>9.8833333333333329</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>12</v>
       </c>
@@ -4362,7 +4362,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>12</v>
       </c>
@@ -4382,7 +4382,7 @@
         <v>1.0666666666666671</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>12</v>
       </c>
@@ -4402,7 +4402,7 @@
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>12</v>
       </c>
@@ -4422,7 +4422,7 @@
         <v>10.18333333333333</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>12</v>
       </c>
